--- a/Companies/Bank - Public/UCO Bank Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
+++ b/Companies/Bank - Public/UCO Bank Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '23</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '23</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '24</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '24</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '24</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '23</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '23</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -512,37 +489,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>3,377.38</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3,570.02</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3,900.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3,958.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>4,137.96</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3,958.55</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3,900.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3,570.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3,377.38</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>4137.96</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>3377.38</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>3788.94</v>
       </c>
     </row>
     <row r="5">
@@ -553,37 +521,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>1,527.53</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1,549.70</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1,536.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1,585.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>1,592.38</t>
         </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1,585.30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1,536.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1,549.70</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1,527.53</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1592.38</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>1527.53</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>1558.312</v>
       </c>
     </row>
     <row r="6">
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>272.18</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>394.16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>388.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>422.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>348.02</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>422.80</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>388.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>394.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>272.18</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>422.8</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>272.18</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>365.224</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>57.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>57.34</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>33.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>38.01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>41.73</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>57.34</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>42.595</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>646.78</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>860.82</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,124.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>835.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>993.07</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>835.43</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1,124.91</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>860.82</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>646.78</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1124.91</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>646.78</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>892.202</v>
       </c>
     </row>
     <row r="9"/>
@@ -725,37 +657,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>3,302.27</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3,563.82</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3,672.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3,770.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>3,778.02</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3,770.43</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3,672.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3,563.82</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3,302.27</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>3778.02</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>3302.27</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>3617.376</v>
       </c>
     </row>
     <row r="12">
@@ -766,37 +689,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1,062.44</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,253.37</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,542.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,208.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,304.45</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,208.12</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,542.67</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,253.37</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,062.44</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1542.67</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1062.44</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1274.21</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +721,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>519.01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>476.38</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>496.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>559.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>557.36</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>559.64</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>496.73</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>476.38</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>519.01</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>559.64</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>476.38</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>521.824</v>
       </c>
     </row>
     <row r="14">
@@ -848,37 +753,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>981.88</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,119.14</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,272.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,321.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,431.60</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,321.23</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,272.87</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,119.14</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>981.88</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1431.6</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>981.88</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1225.344</v>
       </c>
     </row>
     <row r="15">
@@ -889,37 +785,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>342.09</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>342.25</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>467.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>458.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>492.84</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>458.76</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>467.36</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>342.25</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>342.09</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>492.84</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>342.09</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>420.66</v>
       </c>
     </row>
     <row r="16">
@@ -930,37 +817,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>639.79</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>776.89</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>805.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>862.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>938.76</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>862.47</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>805.51</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>776.89</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>639.79</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>938.76</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>639.79</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>804.684</v>
       </c>
     </row>
     <row r="17">
@@ -971,37 +849,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>238.12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>274.06</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>279.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>311.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>336.02</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>311.51</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>279.74</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>274.06</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>238.12</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>336.02</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>238.12</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>287.89</v>
       </c>
     </row>
     <row r="18">
@@ -1012,37 +881,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>401.67</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>502.83</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>525.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>550.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>602.74</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>550.96</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>525.77</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>502.83</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>401.67</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>602.74</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>401.67</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>516.7940000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1053,37 +913,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>401.67</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>502.83</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>525.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>550.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>602.74</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>550.96</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>525.77</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>502.83</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>401.67</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>602.74</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>401.67</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>516.7940000000001</v>
       </c>
     </row>
     <row r="20">
@@ -1117,15 +968,6 @@
           <t>11,955.96</t>
         </is>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>11955.96</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>11955.96</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>11955.96</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1135,37 +977,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>11,005.25</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>11,005.25</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>72,403.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12,403.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>12,403.27</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>72,403.27</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>11,005.25</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>11,005.25</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>72403.27</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>11005.25</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>26704.26</v>
       </c>
     </row>
     <row r="22"/>
@@ -1207,15 +1040,6 @@
           <t>95.39</t>
         </is>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>95.39</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>95.39</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>95.39</v>
-      </c>
     </row>
     <row r="25"/>
     <row r="26">
@@ -1233,37 +1057,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>0.50</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>0.4320000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1274,37 +1089,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>0.50</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>0.4320000000000001</v>
       </c>
     </row>
     <row r="29"/>
@@ -1323,37 +1129,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>0.50</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>0.4320000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1364,37 +1161,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>0.50</t>
         </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>0.4320000000000001</v>
       </c>
     </row>
     <row r="33"/>
@@ -1413,37 +1201,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>6,939.35</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>6,904.77</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6,463.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>6,420.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>6,293.86</t>
         </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>6,420.12</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>6,463.30</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>6,904.77</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6,939.35</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>6939.35</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>6293.86</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>6604.280000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1454,37 +1233,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>1,801.67</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1,699.85</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>162.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1,473.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>1,406.44</t>
         </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1,473.42</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>162.64</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1,699.85</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1,801.67</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>1801.67</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>162.64</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>1308.804</v>
       </c>
     </row>
     <row r="37">
@@ -1495,37 +1265,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>3.18</t>
         </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>3.59</v>
       </c>
     </row>
     <row r="38">
@@ -1536,37 +1297,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>0.73</t>
         </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>0.898</v>
       </c>
     </row>
     <row r="39">
@@ -1577,37 +1329,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>0.75</t>
         </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>0.8099999999999999</v>
       </c>
     </row>
     <row r="40"/>
@@ -1650,37 +1393,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>202312</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>202403</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>202406</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>202409</t>
         </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>202406</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>202403</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>202312</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>202309</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>202409</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>202309</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>202367.8</v>
       </c>
     </row>
   </sheetData>
